--- a/datos.xlsx
+++ b/datos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,20 +449,70 @@
           <t>Edad</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Sexo</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>leo</t>
+          <t>Ezequiel</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>popolo</t>
+          <t>Popolo</t>
         </is>
       </c>
       <c r="C2" t="n">
+        <v>17</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Alejandra</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Popolo</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>48</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Leo</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Popolo</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>25</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
       </c>
     </row>
   </sheetData>
